--- a/individual_case_outputs/avey/471.xlsx
+++ b/individual_case_outputs/avey/471.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>lung cancer</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -745,12 +745,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -811,11 +811,7 @@
           <t>pneumonia</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lung cancer</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
